--- a/results/I3_N5_M2_T30_C150_DepCentral_s3_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s3_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.0257182372856</v>
+        <v>249.4316415516094</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728904</v>
+        <v>29.43164155160937</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.099859042888356</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.099859042888356</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.54999999999654</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,50 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -852,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.10555953090583</v>
+        <v>24.22809649842574</v>
       </c>
     </row>
     <row r="4">
@@ -876,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.8839324825959</v>
+        <v>22.5321137415211</v>
       </c>
     </row>
     <row r="7">
@@ -892,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.50875628620634</v>
+        <v>29.29761324068037</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.17507627316046</v>
+        <v>25.15693754513154</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +986,62 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.505</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.055</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7249999999994</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.875</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999986</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.985</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>159.165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>161.495</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>85.66499999999974</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.02500000000059</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.97500000000059</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.03999999999971</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.91000000000058</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>152.985</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.23</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>161.495</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>151.41</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>156.3</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>150.505</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>154.055</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>149.7249999999994</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.165000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>11.495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.409999999999428</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.504999999999427</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.05499999999941</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1888,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +2015,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1926,7 +2026,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1937,7 +2037,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1948,7 +2048,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1962,53 +2062,9 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
